--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-0.2/avg_0.003_scores.xlsx
@@ -46,91 +46,91 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>returned</t>
   </si>
   <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
     <t>instead</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>guess</t>
+    <t>small</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
     <t>plastic</t>
   </si>
   <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
     <t>difficult</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>thought</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
     <t>though</t>
   </si>
   <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
-    <t>item</t>
+    <t>hard</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
+    <t>work</t>
+  </si>
+  <si>
     <t>would</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>work</t>
+    <t>back</t>
   </si>
   <si>
     <t>could</t>
@@ -139,45 +139,45 @@
     <t>product</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>expected</t>
+    <t>3</t>
   </si>
   <si>
     <t>box</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>even</t>
+    <t>little</t>
+  </si>
+  <si>
+    <t>buy</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>much</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
+    <t>toy</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -208,16 +208,16 @@
     <t>loves</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>best</t>
+    <t>friends</t>
   </si>
   <si>
     <t>loved</t>
-  </si>
-  <si>
-    <t>friends</t>
   </si>
   <si>
     <t>christmas</t>
@@ -656,13 +656,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -674,19 +674,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K3">
-        <v>0.8571428571428571</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L3">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M3">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -706,13 +706,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8636363636363636</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -724,19 +724,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K4">
-        <v>0.8153846153846154</v>
+        <v>0.8307692307692308</v>
       </c>
       <c r="L4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -748,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -756,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.765625</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="C5">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D5">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>57</v>
       </c>
       <c r="K5">
-        <v>0.7204301075268817</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="L5">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M5">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -806,13 +806,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7311827956989247</v>
+        <v>0.765625</v>
       </c>
       <c r="C6">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="D6">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>58</v>
@@ -856,13 +856,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7184466019417476</v>
+        <v>0.7475728155339806</v>
       </c>
       <c r="C7">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D7">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -874,19 +874,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K7">
-        <v>0.578125</v>
+        <v>0.53125</v>
       </c>
       <c r="L7">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M7">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -906,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7183098591549296</v>
+        <v>0.7473118279569892</v>
       </c>
       <c r="C8">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="D8">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>60</v>
@@ -956,13 +956,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7105263157894737</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -974,19 +974,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K9">
-        <v>0.3672131147540983</v>
+        <v>0.3795081967213115</v>
       </c>
       <c r="L9">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="M9">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>772</v>
+        <v>757</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1006,13 +1006,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6666666666666666</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C10">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1024,19 +1024,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K10">
-        <v>0.3362068965517241</v>
+        <v>0.3486370157819225</v>
       </c>
       <c r="L10">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="M10">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1045,10 +1045,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1056,13 +1056,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6554054054054054</v>
+        <v>0.6283783783783784</v>
       </c>
       <c r="C11">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D11">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1074,19 +1074,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K11">
-        <v>0.3070539419087137</v>
+        <v>0.3112033195020747</v>
       </c>
       <c r="L11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1106,13 +1106,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C12">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         <v>64</v>
       </c>
       <c r="K12">
-        <v>0.2349397590361446</v>
+        <v>0.2583333333333334</v>
       </c>
       <c r="L12">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="M12">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>127</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1156,13 +1156,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5630252100840336</v>
+        <v>0.5798319327731093</v>
       </c>
       <c r="C13">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D13">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1174,19 +1174,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K13">
-        <v>0.2333333333333333</v>
+        <v>0.2409638554216867</v>
       </c>
       <c r="L13">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="M13">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>92</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1206,13 +1206,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5238095238095238</v>
+        <v>0.5636363636363636</v>
       </c>
       <c r="C14">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D14">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1224,19 +1224,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K14">
-        <v>0.2232415902140673</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="L14">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="M14">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>254</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1256,13 +1256,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5185185185185185</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C15">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D15">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1274,19 +1274,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K15">
-        <v>0.1851851851851852</v>
+        <v>0.1865443425076453</v>
       </c>
       <c r="L15">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="M15">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1298,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>154</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1306,13 +1306,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5180722891566265</v>
+        <v>0.518840579710145</v>
       </c>
       <c r="C16">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c r="D16">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1324,19 +1324,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>68</v>
       </c>
       <c r="K16">
-        <v>0.1004016064257028</v>
+        <v>0.1244979919678715</v>
       </c>
       <c r="L16">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1356,13 +1356,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5111111111111111</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="C17">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D17">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1374,31 +1374,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K17">
-        <v>0.09640666082383874</v>
+        <v>0.1087719298245614</v>
       </c>
       <c r="L17">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="M17">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>1031</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1406,13 +1406,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4985507246376812</v>
+        <v>0.4645669291338583</v>
       </c>
       <c r="C18">
-        <v>172</v>
+        <v>59</v>
       </c>
       <c r="D18">
-        <v>172</v>
+        <v>59</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1424,19 +1424,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>173</v>
+        <v>68</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>70</v>
       </c>
       <c r="K18">
-        <v>0.05519480519480519</v>
+        <v>0.04935064935064935</v>
       </c>
       <c r="L18">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="M18">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="N18">
         <v>0.99</v>
@@ -1448,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>1455</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1456,13 +1456,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4761904761904762</v>
+        <v>0.4526315789473684</v>
       </c>
       <c r="C19">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D19">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1474,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1482,13 +1482,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4330708661417323</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="C20">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D20">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>72</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1508,13 +1508,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3707865168539326</v>
+        <v>0.3820224719101123</v>
       </c>
       <c r="C21">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1534,13 +1534,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3514851485148515</v>
+        <v>0.3671875</v>
       </c>
       <c r="C22">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D22">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>131</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1560,13 +1560,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3473684210526316</v>
+        <v>0.3415841584158416</v>
       </c>
       <c r="C23">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="D23">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>62</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1586,13 +1586,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.34375</v>
+        <v>0.3364928909952606</v>
       </c>
       <c r="C24">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="D24">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>84</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1612,13 +1612,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.34375</v>
+        <v>0.2905982905982906</v>
       </c>
       <c r="C25">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D25">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>42</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1638,13 +1638,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3222748815165877</v>
+        <v>0.2318840579710145</v>
       </c>
       <c r="C26">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D26">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1656,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>143</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1664,13 +1664,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.264957264957265</v>
+        <v>0.2244897959183673</v>
       </c>
       <c r="C27">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D27">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1690,13 +1690,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2525773195876289</v>
+        <v>0.2164948453608248</v>
       </c>
       <c r="C28">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D28">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1716,13 +1716,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2173913043478261</v>
+        <v>0.215</v>
       </c>
       <c r="C29">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D29">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>216</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1742,13 +1742,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2151898734177215</v>
+        <v>0.2120253164556962</v>
       </c>
       <c r="C30">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D30">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1760,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1768,13 +1768,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2032640949554896</v>
+        <v>0.2025316455696203</v>
       </c>
       <c r="C31">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="D31">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>537</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1794,13 +1794,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.19</v>
+        <v>0.1810089020771513</v>
       </c>
       <c r="C32">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="D32">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>162</v>
+        <v>552</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1820,13 +1820,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.180379746835443</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="C33">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D33">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1838,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>259</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1846,13 +1846,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.178343949044586</v>
+        <v>0.1656050955414013</v>
       </c>
       <c r="C34">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D34">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1872,13 +1872,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1563876651982379</v>
+        <v>0.1585903083700441</v>
       </c>
       <c r="C35">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D35">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1898,13 +1898,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1551724137931035</v>
+        <v>0.1448598130841121</v>
       </c>
       <c r="C36">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D36">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1916,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>294</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1924,13 +1924,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1495327102803738</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C37">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D37">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1942,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>182</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1950,13 +1950,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1314285714285714</v>
+        <v>0.1408045977011494</v>
       </c>
       <c r="C38">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D38">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>152</v>
+        <v>299</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1976,25 +1976,25 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1302083333333333</v>
+        <v>0.1376518218623482</v>
       </c>
       <c r="C39">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D39">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>167</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2002,13 +2002,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1256544502617801</v>
+        <v>0.1361256544502618</v>
       </c>
       <c r="C40">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D40">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2028,13 +2028,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1169354838709677</v>
+        <v>0.1048689138576779</v>
       </c>
       <c r="C41">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D41">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>219</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2054,13 +2054,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1123595505617977</v>
+        <v>0.09315068493150686</v>
       </c>
       <c r="C42">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D42">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>237</v>
+        <v>331</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2080,13 +2080,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1013698630136986</v>
+        <v>0.08685968819599109</v>
       </c>
       <c r="C43">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D43">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>328</v>
+        <v>410</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2106,25 +2106,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.08243727598566308</v>
+        <v>0.07042253521126761</v>
       </c>
       <c r="C44">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D44">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E44">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>256</v>
+        <v>330</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2158,25 +2158,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.06711409395973154</v>
+        <v>0.05336426914153132</v>
       </c>
       <c r="C46">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D46">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E46">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="F46">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>417</v>
+        <v>408</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2184,25 +2184,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.05568445475638051</v>
+        <v>0.04689480354879594</v>
       </c>
       <c r="C47">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D47">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E47">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="F47">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>407</v>
+        <v>752</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2210,25 +2210,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.0379746835443038</v>
+        <v>0.03828483920367534</v>
       </c>
       <c r="C48">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D48">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E48">
-        <v>0.12</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F48">
-        <v>0.88</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>760</v>
+        <v>628</v>
       </c>
     </row>
   </sheetData>
